--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archi\Documents\GitHub\xltrailtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82B6426-6B3F-434C-82EE-6F8723C90D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CF1709-BA6B-449B-B6A5-B0360FC909D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F34F290-3930-4DB2-973B-15396F4C4648}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>feat</t>
   </si>
   <si>
-    <t>syn</t>
+    <t>##syn</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
